--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/INVENTARIO ALMACEN  SEPTIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/INVENTARIO ALMACEN  SEPTIEMBRE  2022.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="144">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -853,6 +853,27 @@
   </si>
   <si>
     <t>Ago.,2022</t>
+  </si>
+  <si>
+    <t>PUNTAS DE CHULETA</t>
+  </si>
+  <si>
+    <t>Traspaso 0017 B1  ( 10 Pzas )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTE ERROR ESTA DESDE AGOSTO  </t>
+  </si>
+  <si>
+    <t>ESTE ERROR ES DE AGOSTO</t>
+  </si>
+  <si>
+    <t>POR DIF EN LA ENTRADA</t>
+  </si>
+  <si>
+    <t>POR DIFERENCIA EN KILOS EN LA ENTRADA QUE RETISTRA ALMACEN</t>
+  </si>
+  <si>
+    <t>ERROR DE ALMACEN EN TRASPASO # 0017 B1  en piezas</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="553">
+  <cellXfs count="580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3499,6 +3520,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3562,36 +3619,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3637,6 +3664,30 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3658,38 +3709,73 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3700,11 +3786,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF66FF99"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC66FF"/>
@@ -4016,10 +4102,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4031,50 +4117,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44591</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -4096,7 +4182,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -4153,8 +4239,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -4192,8 +4278,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -4276,8 +4362,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="490"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="502"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -4358,8 +4444,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="513"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="494"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
     </row>
@@ -4510,8 +4596,8 @@
         <f>L14+I14</f>
         <v>-34</v>
       </c>
-      <c r="O14" s="514"/>
-      <c r="P14" s="514"/>
+      <c r="O14" s="495"/>
+      <c r="P14" s="495"/>
       <c r="Q14" s="163" t="s">
         <v>47</v>
       </c>
@@ -4725,8 +4811,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O19" s="515"/>
-      <c r="P19" s="515"/>
+      <c r="O19" s="496"/>
+      <c r="P19" s="496"/>
       <c r="Q19" s="163" t="s">
         <v>49</v>
       </c>
@@ -4813,8 +4899,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="516"/>
-      <c r="P21" s="516"/>
+      <c r="O21" s="497"/>
+      <c r="P21" s="497"/>
       <c r="Q21" s="163" t="s">
         <v>50</v>
       </c>
@@ -4858,8 +4944,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="517"/>
-      <c r="P22" s="518"/>
+      <c r="O22" s="498"/>
+      <c r="P22" s="499"/>
       <c r="Q22" s="150"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
@@ -4965,8 +5051,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="519"/>
-      <c r="P25" s="519"/>
+      <c r="O25" s="500"/>
+      <c r="P25" s="500"/>
       <c r="Q25" s="163" t="s">
         <v>51</v>
       </c>
@@ -5358,10 +5444,10 @@
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="511" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="511"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H30)</f>
         <v>35456.6</v>
@@ -5390,7 +5476,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="510" t="s">
+      <c r="B40" s="491" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="155" t="s">
@@ -5411,7 +5497,7 @@
       <c r="N40" s="160"/>
     </row>
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="510"/>
+      <c r="B41" s="491"/>
       <c r="C41" s="155" t="s">
         <v>48</v>
       </c>
@@ -5430,7 +5516,7 @@
       <c r="N41" s="160"/>
     </row>
     <row r="42" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="510"/>
+      <c r="B42" s="491"/>
       <c r="C42" s="155" t="s">
         <v>49</v>
       </c>
@@ -5449,7 +5535,7 @@
       <c r="N42" s="160"/>
     </row>
     <row r="43" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="510"/>
+      <c r="B43" s="491"/>
       <c r="C43" s="155" t="s">
         <v>50</v>
       </c>
@@ -5468,7 +5554,7 @@
       <c r="N43" s="160"/>
     </row>
     <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="510"/>
+      <c r="B44" s="491"/>
       <c r="C44" s="155" t="s">
         <v>51</v>
       </c>
@@ -5487,7 +5573,7 @@
       <c r="N44" s="160"/>
     </row>
     <row r="45" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="510"/>
+      <c r="B45" s="491"/>
       <c r="C45" s="155" t="s">
         <v>54</v>
       </c>
@@ -5513,14 +5599,6 @@
     <sortCondition ref="B7:B36"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O25:P25"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -5533,6 +5611,14 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -5545,15 +5631,15 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B1:X50"/>
+  <dimension ref="B1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S33:S34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="127" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
@@ -5569,14 +5655,14 @@
     <col min="14" max="14" width="10" style="127" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="329" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" style="329" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+    <row r="1" spans="2:24" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="575" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="576"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5588,50 +5674,58 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44836</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
+      <c r="Q2" s="330"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="579"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -5653,7 +5747,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -5673,28 +5767,44 @@
       <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
     </row>
     <row r="5" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="442"/>
+      <c r="C5" s="441">
+        <v>70.44</v>
+      </c>
+      <c r="D5" s="442">
+        <v>6</v>
+      </c>
       <c r="E5" s="255"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="443"/>
+      <c r="F5" s="441">
+        <v>500.75</v>
+      </c>
+      <c r="G5" s="443">
+        <v>43</v>
+      </c>
       <c r="H5" s="29">
         <f t="shared" ref="H5:I36" si="0">F5+C5</f>
-        <v>0</v>
+        <v>571.19000000000005</v>
       </c>
       <c r="I5" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J5" s="31"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="32">
+      <c r="K5" s="51">
+        <v>571.19000000000005</v>
+      </c>
+      <c r="L5" s="52">
+        <v>49</v>
+      </c>
+      <c r="M5" s="553">
         <f>K5-H5</f>
         <v>0</v>
       </c>
@@ -5702,8 +5812,12 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="517"/>
+      <c r="Q5" s="330"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -5712,31 +5826,43 @@
       <c r="C6" s="444"/>
       <c r="D6" s="442"/>
       <c r="E6" s="255"/>
-      <c r="F6" s="441"/>
-      <c r="G6" s="443"/>
+      <c r="F6" s="441">
+        <v>858.14</v>
+      </c>
+      <c r="G6" s="443">
+        <v>79</v>
+      </c>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>858.14</v>
       </c>
       <c r="I6" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J6" s="31"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="35">
+      <c r="K6" s="51">
+        <v>858.16</v>
+      </c>
+      <c r="L6" s="52">
+        <v>71</v>
+      </c>
+      <c r="M6" s="554">
         <f t="shared" ref="M6:N23" si="1">K6-H6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="312">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="N6" s="574">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="O6" s="519"/>
+      <c r="P6" s="519"/>
+      <c r="Q6" s="489" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="185"/>
+      <c r="S6" s="577"/>
+      <c r="T6" s="578"/>
       <c r="U6" s="39"/>
       <c r="V6" s="40"/>
       <c r="W6" s="41"/>
@@ -5762,7 +5888,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="51"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="42">
+      <c r="M7" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5774,6 +5900,8 @@
       <c r="P7" s="300"/>
       <c r="Q7" s="330"/>
       <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
     </row>
     <row r="8" spans="2:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="264" t="s">
@@ -5782,31 +5910,41 @@
       <c r="C8" s="441"/>
       <c r="D8" s="442"/>
       <c r="E8" s="255"/>
-      <c r="F8" s="441"/>
-      <c r="G8" s="443"/>
+      <c r="F8" s="441">
+        <v>475.15</v>
+      </c>
+      <c r="G8" s="443">
+        <v>44</v>
+      </c>
       <c r="H8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>475.15</v>
       </c>
       <c r="I8" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J8" s="31"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K8" s="51">
+        <v>475.45</v>
+      </c>
+      <c r="L8" s="52">
+        <v>44</v>
+      </c>
+      <c r="M8" s="220">
+        <f t="shared" si="1"/>
+        <v>0.30000000000001137</v>
       </c>
       <c r="N8" s="270">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="264" t="s">
@@ -5840,28 +5978,42 @@
       <c r="P9" s="170"/>
       <c r="Q9" s="190"/>
       <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="441"/>
-      <c r="D10" s="442"/>
+      <c r="C10" s="441">
+        <v>20</v>
+      </c>
+      <c r="D10" s="442">
+        <v>2</v>
+      </c>
       <c r="E10" s="255"/>
-      <c r="F10" s="441"/>
-      <c r="G10" s="443"/>
+      <c r="F10" s="441">
+        <v>150</v>
+      </c>
+      <c r="G10" s="443">
+        <v>15</v>
+      </c>
       <c r="H10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="I10" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="191">
+      <c r="K10" s="51">
+        <v>170</v>
+      </c>
+      <c r="L10" s="52">
+        <v>17</v>
+      </c>
+      <c r="M10" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5869,10 +6021,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="264" t="s">
@@ -5881,20 +6035,28 @@
       <c r="C11" s="441"/>
       <c r="D11" s="442"/>
       <c r="E11" s="255"/>
-      <c r="F11" s="441"/>
-      <c r="G11" s="443"/>
+      <c r="F11" s="441">
+        <v>70</v>
+      </c>
+      <c r="G11" s="443">
+        <v>7</v>
+      </c>
       <c r="H11" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I11" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" s="31"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="191">
+      <c r="K11" s="51">
+        <v>70</v>
+      </c>
+      <c r="L11" s="52">
+        <v>7</v>
+      </c>
+      <c r="M11" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5906,28 +6068,38 @@
       <c r="P11" s="488"/>
       <c r="Q11" s="379"/>
       <c r="R11" s="185"/>
+      <c r="S11" s="185"/>
+      <c r="T11" s="185"/>
     </row>
     <row r="12" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="364" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="446"/>
-      <c r="D12" s="442"/>
+      <c r="C12" s="446">
+        <v>624.57000000000005</v>
+      </c>
+      <c r="D12" s="442">
+        <v>20</v>
+      </c>
       <c r="E12" s="255"/>
       <c r="F12" s="446"/>
       <c r="G12" s="443"/>
       <c r="H12" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>624.57000000000005</v>
       </c>
       <c r="I12" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J12" s="31"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="191">
+      <c r="K12" s="51">
+        <v>624.57000000000005</v>
+      </c>
+      <c r="L12" s="52">
+        <v>20</v>
+      </c>
+      <c r="M12" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5939,8 +6111,8 @@
       <c r="P12" s="171"/>
       <c r="Q12" s="379"/>
       <c r="R12" s="185"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
     </row>
     <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="264" t="s">
@@ -5949,19 +6121,27 @@
       <c r="C13" s="441"/>
       <c r="D13" s="442"/>
       <c r="E13" s="255"/>
-      <c r="F13" s="441"/>
-      <c r="G13" s="443"/>
+      <c r="F13" s="441">
+        <v>12085.12</v>
+      </c>
+      <c r="G13" s="443">
+        <v>390</v>
+      </c>
       <c r="H13" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12085.12</v>
       </c>
       <c r="I13" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="J13" s="31"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="K13" s="51">
+        <v>12085.12</v>
+      </c>
+      <c r="L13" s="52">
+        <v>390</v>
+      </c>
       <c r="M13" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5970,34 +6150,42 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="53"/>
-    </row>
-    <row r="14" spans="2:24" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="188"/>
+      <c r="T13" s="185"/>
+    </row>
+    <row r="14" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="264" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="441"/>
       <c r="D14" s="442"/>
       <c r="E14" s="255"/>
-      <c r="F14" s="441"/>
-      <c r="G14" s="443"/>
+      <c r="F14" s="441">
+        <v>1309.6500000000001</v>
+      </c>
+      <c r="G14" s="443">
+        <v>51</v>
+      </c>
       <c r="H14" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1309.6500000000001</v>
       </c>
       <c r="I14" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J14" s="31"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="191">
+      <c r="K14" s="51">
+        <v>1309.6500000000001</v>
+      </c>
+      <c r="L14" s="52">
+        <v>51</v>
+      </c>
+      <c r="M14" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6009,8 +6197,8 @@
       <c r="P14" s="172"/>
       <c r="Q14" s="190"/>
       <c r="R14" s="185"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
     </row>
     <row r="15" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="264" t="s">
@@ -6019,20 +6207,28 @@
       <c r="C15" s="441"/>
       <c r="D15" s="442"/>
       <c r="E15" s="255"/>
-      <c r="F15" s="441"/>
-      <c r="G15" s="443"/>
+      <c r="F15" s="441">
+        <v>1959.84</v>
+      </c>
+      <c r="G15" s="443">
+        <v>144</v>
+      </c>
       <c r="H15" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1959.84</v>
       </c>
       <c r="I15" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J15" s="31"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="191">
+      <c r="K15" s="51">
+        <v>1959.84</v>
+      </c>
+      <c r="L15" s="52">
+        <v>144</v>
+      </c>
+      <c r="M15" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6044,8 +6240,8 @@
       <c r="P15" s="172"/>
       <c r="Q15" s="190"/>
       <c r="R15" s="185"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
+      <c r="S15" s="185"/>
+      <c r="T15" s="185"/>
     </row>
     <row r="16" spans="2:24" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="264" t="s">
@@ -6067,7 +6263,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="191">
+      <c r="M16" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6079,30 +6275,38 @@
       <c r="P16" s="173"/>
       <c r="Q16" s="190"/>
       <c r="R16" s="185"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
     </row>
     <row r="17" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="441"/>
-      <c r="D17" s="442"/>
+      <c r="C17" s="441">
+        <v>1339.68</v>
+      </c>
+      <c r="D17" s="442">
+        <v>52</v>
+      </c>
       <c r="E17" s="255"/>
       <c r="F17" s="441"/>
       <c r="G17" s="443"/>
       <c r="H17" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1339.68</v>
       </c>
       <c r="I17" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J17" s="31"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="191">
+      <c r="K17" s="51">
+        <v>1339.68</v>
+      </c>
+      <c r="L17" s="52">
+        <v>52</v>
+      </c>
+      <c r="M17" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6114,8 +6318,8 @@
       <c r="P17" s="173"/>
       <c r="Q17" s="190"/>
       <c r="R17" s="185"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
     </row>
     <row r="18" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="264" t="s">
@@ -6124,35 +6328,45 @@
       <c r="C18" s="441"/>
       <c r="D18" s="448"/>
       <c r="E18" s="255"/>
-      <c r="F18" s="441"/>
-      <c r="G18" s="443"/>
+      <c r="F18" s="441">
+        <v>881.49</v>
+      </c>
+      <c r="G18" s="443">
+        <v>42</v>
+      </c>
       <c r="H18" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>881.49</v>
       </c>
       <c r="I18" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J18" s="31"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="191">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="270">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K18" s="51">
+        <v>884.99</v>
+      </c>
+      <c r="L18" s="52">
+        <v>43</v>
+      </c>
+      <c r="M18" s="315">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="N18" s="316">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="174"/>
-      <c r="Q18" s="551"/>
+      <c r="Q18" s="489" t="s">
+        <v>139</v>
+      </c>
       <c r="R18" s="185"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-    </row>
-    <row r="19" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+    </row>
+    <row r="19" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="264" t="s">
         <v>82</v>
       </c>
@@ -6172,7 +6386,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="51"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="191">
+      <c r="M19" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6184,8 +6398,8 @@
       <c r="P19" s="164"/>
       <c r="Q19" s="190"/>
       <c r="R19" s="185"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
     </row>
     <row r="20" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="264" t="s">
@@ -6194,33 +6408,41 @@
       <c r="C20" s="447"/>
       <c r="D20" s="448"/>
       <c r="E20" s="264"/>
-      <c r="F20" s="447"/>
-      <c r="G20" s="449"/>
+      <c r="F20" s="447">
+        <v>86.26</v>
+      </c>
+      <c r="G20" s="449">
+        <v>19</v>
+      </c>
       <c r="H20" s="268">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.26</v>
       </c>
       <c r="I20" s="269">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J20" s="241"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="191">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K20" s="51">
+        <v>86.36</v>
+      </c>
+      <c r="L20" s="52">
+        <v>19</v>
+      </c>
+      <c r="M20" s="220">
+        <f t="shared" si="1"/>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="N20" s="270">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="515"/>
-      <c r="P20" s="515"/>
+      <c r="O20" s="496"/>
+      <c r="P20" s="496"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="185"/>
     </row>
     <row r="21" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="264" t="s">
@@ -6242,7 +6464,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="51"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="191">
+      <c r="M21" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6254,43 +6476,55 @@
       <c r="P21" s="175"/>
       <c r="Q21" s="190"/>
       <c r="R21" s="136"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="53"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="185"/>
     </row>
     <row r="22" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="364" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="441"/>
-      <c r="D22" s="442"/>
+      <c r="C22" s="441">
+        <v>3161.94</v>
+      </c>
+      <c r="D22" s="442">
+        <v>129</v>
+      </c>
       <c r="E22" s="255"/>
-      <c r="F22" s="441"/>
-      <c r="G22" s="443"/>
+      <c r="F22" s="441">
+        <v>1299.74</v>
+      </c>
+      <c r="G22" s="443">
+        <v>48</v>
+      </c>
       <c r="H22" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4461.68</v>
       </c>
       <c r="I22" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="J22" s="31"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="K22" s="51">
+        <v>4461.7299999999996</v>
+      </c>
+      <c r="L22" s="52">
+        <v>177</v>
+      </c>
       <c r="M22" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9999999999272404E-2</v>
       </c>
       <c r="N22" s="270">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="516"/>
-      <c r="P22" s="516"/>
+      <c r="O22" s="497"/>
+      <c r="P22" s="497"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="53"/>
+      <c r="S22" s="189"/>
+      <c r="T22" s="185"/>
     </row>
     <row r="23" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="264" t="s">
@@ -6312,7 +6546,7 @@
       <c r="J23" s="31"/>
       <c r="K23" s="51"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="191">
+      <c r="M23" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6320,12 +6554,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="517"/>
-      <c r="P23" s="517"/>
+      <c r="O23" s="498"/>
+      <c r="P23" s="498"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
     </row>
     <row r="24" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="264" t="s">
@@ -6347,7 +6581,7 @@
       <c r="J24" s="31"/>
       <c r="K24" s="77"/>
       <c r="L24" s="78"/>
-      <c r="M24" s="191">
+      <c r="M24" s="220">
         <f t="shared" ref="M24:N38" si="2">K24-H24</f>
         <v>0</v>
       </c>
@@ -6359,6 +6593,8 @@
       <c r="P24" s="176"/>
       <c r="Q24" s="190"/>
       <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
     </row>
     <row r="25" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="264" t="s">
@@ -6380,7 +6616,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="77"/>
       <c r="L25" s="78"/>
-      <c r="M25" s="191">
+      <c r="M25" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6392,60 +6628,82 @@
       <c r="P25" s="177"/>
       <c r="Q25" s="190"/>
       <c r="R25" s="185"/>
-    </row>
-    <row r="26" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+    </row>
+    <row r="26" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="322" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="441"/>
       <c r="D26" s="442"/>
       <c r="E26" s="255"/>
-      <c r="F26" s="441"/>
-      <c r="G26" s="443"/>
+      <c r="F26" s="441">
+        <v>458.41</v>
+      </c>
+      <c r="G26" s="443">
+        <v>15</v>
+      </c>
       <c r="H26" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>458.41</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="52"/>
+      <c r="K26" s="83">
+        <v>458.41</v>
+      </c>
+      <c r="L26" s="52">
+        <v>16</v>
+      </c>
       <c r="M26" s="220">
         <f>K26-H26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="270">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="519"/>
-      <c r="P26" s="519"/>
-      <c r="Q26" s="551"/>
+      <c r="N26" s="248">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="500"/>
+      <c r="P26" s="500"/>
+      <c r="Q26" s="489" t="s">
+        <v>140</v>
+      </c>
       <c r="R26" s="185"/>
-    </row>
-    <row r="27" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+    </row>
+    <row r="27" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="321" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="441"/>
       <c r="D27" s="442"/>
       <c r="E27" s="255"/>
-      <c r="F27" s="450"/>
-      <c r="G27" s="451"/>
+      <c r="F27" s="450">
+        <v>16631.419999999998</v>
+      </c>
+      <c r="G27" s="451">
+        <v>611</v>
+      </c>
       <c r="H27" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16631.419999999998</v>
       </c>
       <c r="I27" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="J27" s="31"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="52"/>
+      <c r="K27" s="83">
+        <v>16631.419999999998</v>
+      </c>
+      <c r="L27" s="52">
+        <v>611</v>
+      </c>
       <c r="M27" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6458,6 +6716,8 @@
       <c r="P27" s="222"/>
       <c r="Q27" s="190"/>
       <c r="R27" s="185"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="185"/>
     </row>
     <row r="28" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="364" t="s">
@@ -6479,7 +6739,7 @@
       <c r="J28" s="31"/>
       <c r="K28" s="83"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="191">
+      <c r="M28" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6491,8 +6751,10 @@
       <c r="P28" s="224"/>
       <c r="Q28" s="190"/>
       <c r="R28" s="185"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="435" t="s">
         <v>37</v>
       </c>
@@ -6512,7 +6774,7 @@
       <c r="J29" s="31"/>
       <c r="K29" s="83"/>
       <c r="L29" s="52"/>
-      <c r="M29" s="42">
+      <c r="M29" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6522,9 +6784,10 @@
       </c>
       <c r="O29" s="223"/>
       <c r="P29" s="224"/>
-      <c r="Q29" s="552"/>
+      <c r="Q29" s="490"/>
       <c r="R29" s="185"/>
-      <c r="S29" s="53"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
     </row>
     <row r="30" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="264" t="s">
@@ -6546,7 +6809,7 @@
       <c r="J30" s="31"/>
       <c r="K30" s="83"/>
       <c r="L30" s="52"/>
-      <c r="M30" s="42">
+      <c r="M30" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6558,8 +6821,10 @@
       <c r="P30" s="227"/>
       <c r="Q30" s="194"/>
       <c r="R30" s="185"/>
-    </row>
-    <row r="31" spans="2:20" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+    </row>
+    <row r="31" spans="2:20" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="365" t="s">
         <v>73</v>
       </c>
@@ -6579,7 +6844,7 @@
       <c r="J31" s="31"/>
       <c r="K31" s="83"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="42">
+      <c r="M31" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6591,30 +6856,40 @@
       <c r="P31" s="229"/>
       <c r="Q31" s="190"/>
       <c r="R31" s="185"/>
-    </row>
-    <row r="32" spans="2:20" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="185"/>
+      <c r="T31" s="185"/>
+    </row>
+    <row r="32" spans="2:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="366" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C32" s="452"/>
       <c r="D32" s="456"/>
       <c r="E32" s="457"/>
-      <c r="F32" s="452"/>
-      <c r="G32" s="458"/>
+      <c r="F32" s="452">
+        <v>6950.3</v>
+      </c>
+      <c r="G32" s="458">
+        <v>246</v>
+      </c>
       <c r="H32" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6950.3</v>
       </c>
       <c r="I32" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J32" s="31"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="K32" s="83">
+        <v>6948.3</v>
+      </c>
+      <c r="L32" s="52">
+        <v>246</v>
+      </c>
+      <c r="M32" s="324">
+        <f t="shared" si="2"/>
+        <v>-2</v>
       </c>
       <c r="N32" s="270">
         <f t="shared" si="2"/>
@@ -6622,10 +6897,14 @@
       </c>
       <c r="O32" s="367"/>
       <c r="P32" s="368"/>
-      <c r="Q32" s="190"/>
+      <c r="Q32" s="489" t="s">
+        <v>141</v>
+      </c>
       <c r="R32" s="185"/>
-    </row>
-    <row r="33" spans="2:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S32" s="185"/>
+      <c r="T32" s="185"/>
+    </row>
+    <row r="33" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="112" t="s">
         <v>70</v>
       </c>
@@ -6645,7 +6924,7 @@
       <c r="J33" s="31"/>
       <c r="K33" s="83"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="42">
+      <c r="M33" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6657,28 +6936,38 @@
       <c r="P33" s="233"/>
       <c r="Q33" s="194"/>
       <c r="R33" s="185"/>
-    </row>
-    <row r="34" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S33" s="185"/>
+      <c r="T33" s="185"/>
+    </row>
+    <row r="34" spans="2:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="465" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="441"/>
       <c r="D34" s="442"/>
       <c r="E34" s="459"/>
-      <c r="F34" s="452"/>
-      <c r="G34" s="458"/>
+      <c r="F34" s="452">
+        <v>825</v>
+      </c>
+      <c r="G34" s="458">
+        <v>55</v>
+      </c>
       <c r="H34" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="I34" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J34" s="31"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="42">
+      <c r="K34" s="83">
+        <v>825</v>
+      </c>
+      <c r="L34" s="52">
+        <v>55</v>
+      </c>
+      <c r="M34" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6690,8 +6979,10 @@
       <c r="P34" s="233"/>
       <c r="Q34" s="190"/>
       <c r="R34" s="185"/>
-    </row>
-    <row r="35" spans="2:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="185"/>
+      <c r="T34" s="185"/>
+    </row>
+    <row r="35" spans="2:20" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="109" t="s">
         <v>78</v>
       </c>
@@ -6711,7 +7002,7 @@
       <c r="J35" s="31"/>
       <c r="K35" s="83"/>
       <c r="L35" s="52"/>
-      <c r="M35" s="42">
+      <c r="M35" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6723,28 +7014,38 @@
       <c r="P35" s="114"/>
       <c r="Q35" s="300"/>
       <c r="R35" s="185"/>
-    </row>
-    <row r="36" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S35" s="185"/>
+      <c r="T35" s="185"/>
+    </row>
+    <row r="36" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="460"/>
       <c r="D36" s="442"/>
       <c r="E36" s="457"/>
-      <c r="F36" s="452"/>
-      <c r="G36" s="458"/>
+      <c r="F36" s="452">
+        <v>79.37</v>
+      </c>
+      <c r="G36" s="458">
+        <v>7</v>
+      </c>
       <c r="H36" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79.37</v>
       </c>
       <c r="I36" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J36" s="31"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="42">
+      <c r="K36" s="83">
+        <v>79.37</v>
+      </c>
+      <c r="L36" s="52">
+        <v>7</v>
+      </c>
+      <c r="M36" s="220">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6756,32 +7057,46 @@
       <c r="P36" s="235"/>
       <c r="Q36" s="187"/>
       <c r="R36" s="185"/>
-    </row>
-    <row r="37" spans="2:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S36" s="185"/>
+      <c r="T36" s="185"/>
+    </row>
+    <row r="37" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="461"/>
-      <c r="D37" s="462"/>
+      <c r="C37" s="461">
+        <v>584.52</v>
+      </c>
+      <c r="D37" s="462">
+        <v>21</v>
+      </c>
       <c r="E37" s="463"/>
-      <c r="F37" s="461"/>
-      <c r="G37" s="464"/>
+      <c r="F37" s="461">
+        <v>1999.52</v>
+      </c>
+      <c r="G37" s="464">
+        <v>70</v>
+      </c>
       <c r="H37" s="401">
         <f t="shared" ref="H37:I38" si="3">F37+C37</f>
-        <v>0</v>
+        <v>2584.04</v>
       </c>
       <c r="I37" s="402">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J37" s="403"/>
-      <c r="K37" s="404"/>
-      <c r="L37" s="405"/>
-      <c r="M37" s="406">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="407">
+      <c r="K37" s="404">
+        <v>2584.0500000000002</v>
+      </c>
+      <c r="L37" s="405">
+        <v>91</v>
+      </c>
+      <c r="M37" s="555">
+        <f t="shared" si="2"/>
+        <v>1.0000000000218279E-2</v>
+      </c>
+      <c r="N37" s="556">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6789,8 +7104,10 @@
       <c r="P37" s="231"/>
       <c r="Q37" s="300"/>
       <c r="R37" s="185"/>
-    </row>
-    <row r="38" spans="2:18" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="185"/>
+      <c r="T37" s="185"/>
+    </row>
+    <row r="38" spans="2:20" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="141" t="s">
         <v>42</v>
       </c>
@@ -6822,26 +7139,28 @@
       <c r="P38" s="237"/>
       <c r="Q38" s="300"/>
       <c r="R38" s="185"/>
-    </row>
-    <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S38" s="185"/>
+      <c r="T38" s="185"/>
+    </row>
+    <row r="39" spans="2:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="511" t="s">
+      <c r="F39" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="511"/>
+      <c r="G39" s="492"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
-        <v>0</v>
+        <v>41982.6</v>
       </c>
       <c r="I39" s="130">
         <f>SUM(I5:I31)</f>
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="J39" s="131"/>
       <c r="K39" s="132">
         <f>SUM(K5:K37)</f>
-        <v>0</v>
+        <v>52423.290000000008</v>
       </c>
       <c r="L39" s="133" t="s">
         <v>63</v>
@@ -6852,22 +7171,31 @@
       <c r="P39" s="241"/>
       <c r="Q39" s="300"/>
       <c r="R39" s="185"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="185"/>
+      <c r="T39" s="185"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M40" s="195"/>
       <c r="N40" s="196"/>
       <c r="O40" s="197"/>
-      <c r="Q40" s="241"/>
-    </row>
-    <row r="41" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q40" s="300"/>
+      <c r="R40" s="185"/>
+      <c r="S40" s="185"/>
+      <c r="T40" s="185"/>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="136"/>
       <c r="C41" s="137"/>
       <c r="D41" s="136"/>
       <c r="E41" s="136"/>
       <c r="F41" s="136"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="330"/>
+      <c r="R41" s="185"/>
+      <c r="S41" s="185"/>
+      <c r="T41" s="185"/>
+    </row>
+    <row r="42" spans="2:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="425" t="s">
         <v>131</v>
       </c>
@@ -6883,91 +7211,100 @@
       <c r="M42" s="391"/>
       <c r="N42" s="212"/>
     </row>
-    <row r="43" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="244"/>
-      <c r="C43" s="475" t="s">
+    <row r="43" spans="2:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="573" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="486"/>
-      <c r="E43" s="487"/>
-      <c r="F43" s="487"/>
-      <c r="G43" s="487"/>
-      <c r="H43" s="487"/>
-      <c r="I43" s="487"/>
-      <c r="J43" s="487"/>
-      <c r="K43" s="487"/>
-      <c r="L43" s="392"/>
-      <c r="M43" s="211"/>
+      <c r="D43" s="570" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="571"/>
+      <c r="F43" s="571"/>
+      <c r="G43" s="572"/>
+      <c r="H43" s="572"/>
+      <c r="I43" s="572"/>
+      <c r="J43" s="572"/>
+      <c r="K43" s="572"/>
+      <c r="L43" s="388"/>
+      <c r="M43" s="391"/>
       <c r="N43" s="212"/>
     </row>
-    <row r="44" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
-      <c r="C44" s="201" t="s">
+      <c r="C44" s="475" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="483"/>
-      <c r="E44" s="484"/>
-      <c r="F44" s="484"/>
-      <c r="G44" s="485"/>
-      <c r="H44" s="485"/>
-      <c r="I44" s="485"/>
-      <c r="J44" s="485"/>
-      <c r="K44" s="485"/>
-      <c r="L44" s="206"/>
+      <c r="D44" s="486" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="487"/>
+      <c r="F44" s="487"/>
+      <c r="G44" s="487"/>
+      <c r="H44" s="487"/>
+      <c r="I44" s="487"/>
+      <c r="J44" s="487"/>
+      <c r="K44" s="487"/>
+      <c r="L44" s="392"/>
       <c r="M44" s="211"/>
       <c r="N44" s="212"/>
     </row>
-    <row r="45" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="244"/>
-      <c r="C45" s="480" t="s">
+      <c r="C45" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="481"/>
-      <c r="E45" s="482"/>
-      <c r="F45" s="482"/>
-      <c r="G45" s="482"/>
-      <c r="H45" s="482"/>
-      <c r="I45" s="482"/>
-      <c r="J45" s="482"/>
-      <c r="K45" s="482"/>
-      <c r="L45" s="470"/>
+      <c r="D45" s="483" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="484"/>
+      <c r="F45" s="484"/>
+      <c r="G45" s="485"/>
+      <c r="H45" s="485"/>
+      <c r="I45" s="485"/>
+      <c r="J45" s="485"/>
+      <c r="K45" s="485"/>
+      <c r="L45" s="206"/>
       <c r="M45" s="211"/>
       <c r="N45" s="212"/>
     </row>
-    <row r="46" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="244"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="389"/>
-      <c r="E46" s="390"/>
-      <c r="F46" s="390"/>
-      <c r="G46" s="390"/>
-      <c r="H46" s="390"/>
-      <c r="I46" s="390"/>
-      <c r="J46" s="390"/>
-      <c r="K46" s="390"/>
-      <c r="L46" s="206"/>
-      <c r="M46" s="207"/>
-      <c r="N46" s="208"/>
-    </row>
-    <row r="47" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="480" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="481" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="482"/>
+      <c r="F46" s="482"/>
+      <c r="G46" s="482"/>
+      <c r="H46" s="482"/>
+      <c r="I46" s="482"/>
+      <c r="J46" s="482"/>
+      <c r="K46" s="482"/>
+      <c r="L46" s="470"/>
+      <c r="M46" s="211"/>
+      <c r="N46" s="212"/>
+    </row>
+    <row r="47" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="244"/>
       <c r="C47" s="204"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
+      <c r="D47" s="389"/>
+      <c r="E47" s="390"/>
+      <c r="F47" s="390"/>
+      <c r="G47" s="390"/>
+      <c r="H47" s="390"/>
+      <c r="I47" s="390"/>
+      <c r="J47" s="390"/>
+      <c r="K47" s="390"/>
       <c r="L47" s="206"/>
       <c r="M47" s="207"/>
       <c r="N47" s="208"/>
     </row>
-    <row r="48" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="244"/>
       <c r="C48" s="204"/>
-      <c r="D48" s="210"/>
+      <c r="D48" s="209"/>
       <c r="E48" s="185"/>
       <c r="F48" s="185"/>
       <c r="G48" s="185"/>
@@ -6979,10 +7316,10 @@
       <c r="M48" s="207"/>
       <c r="N48" s="208"/>
     </row>
-    <row r="49" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="244"/>
       <c r="C49" s="204"/>
-      <c r="D49" s="186"/>
+      <c r="D49" s="210"/>
       <c r="E49" s="185"/>
       <c r="F49" s="185"/>
       <c r="G49" s="185"/>
@@ -6991,17 +7328,34 @@
       <c r="J49" s="185"/>
       <c r="K49" s="185"/>
       <c r="L49" s="206"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="M49" s="207"/>
+      <c r="N49" s="208"/>
+    </row>
+    <row r="50" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="244"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="185"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="185"/>
+      <c r="K50" s="185"/>
+      <c r="L50" s="206"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -7009,13 +7363,11 @@
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7071,10 +7423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7086,50 +7438,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44619</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -7151,7 +7503,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -7208,8 +7560,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -7247,8 +7599,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -7333,8 +7685,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -7406,8 +7758,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -7531,8 +7883,8 @@
         <f t="shared" ref="N13:N33" si="2">L13-I13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="199" t="s">
         <v>64</v>
       </c>
@@ -7728,8 +8080,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="515"/>
-      <c r="P18" s="515"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -7810,8 +8162,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="516"/>
-      <c r="P20" s="516"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -7845,8 +8197,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="517"/>
-      <c r="P21" s="517"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -7954,8 +8306,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="519"/>
-      <c r="P24" s="519"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="1"/>
     </row>
@@ -8356,10 +8708,10 @@
     <row r="36" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="126"/>
       <c r="D36" s="128"/>
-      <c r="F36" s="511" t="s">
+      <c r="F36" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="511"/>
+      <c r="G36" s="492"/>
       <c r="H36" s="129">
         <f>SUM(H5:H29)</f>
         <v>22064.760000000002</v>
@@ -8397,7 +8749,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="510" t="s">
+      <c r="B39" s="491" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="155" t="s">
@@ -8418,7 +8770,7 @@
       <c r="N39" s="212"/>
     </row>
     <row r="40" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="510"/>
+      <c r="B40" s="491"/>
       <c r="C40" s="204"/>
       <c r="D40" s="213"/>
       <c r="E40" s="214"/>
@@ -8433,7 +8785,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="510"/>
+      <c r="B41" s="491"/>
       <c r="C41" s="201" t="s">
         <v>48</v>
       </c>
@@ -8452,7 +8804,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="520"/>
+      <c r="B42" s="522"/>
       <c r="C42" s="204"/>
       <c r="D42" s="205"/>
       <c r="E42" s="185"/>
@@ -8467,7 +8819,7 @@
       <c r="N42" s="208"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="520"/>
+      <c r="B43" s="522"/>
       <c r="C43" s="204"/>
       <c r="D43" s="209"/>
       <c r="E43" s="185"/>
@@ -8482,7 +8834,7 @@
       <c r="N43" s="208"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="520"/>
+      <c r="B44" s="522"/>
       <c r="C44" s="204"/>
       <c r="D44" s="210"/>
       <c r="E44" s="185"/>
@@ -8504,18 +8856,6 @@
     <sortCondition ref="B9:B16"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B39:B44"/>
@@ -8524,6 +8864,18 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -8564,10 +8916,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -8579,50 +8931,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44647</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -8644,7 +8996,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -8701,8 +9053,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -8740,8 +9092,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -8826,8 +9178,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -8899,8 +9251,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -9016,8 +9368,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -9207,8 +9559,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="515"/>
-      <c r="P18" s="515"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -9277,8 +9629,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="516"/>
-      <c r="P20" s="516"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -9312,8 +9664,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="517"/>
-      <c r="P21" s="517"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -9421,8 +9773,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="519"/>
-      <c r="P24" s="519"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -9862,10 +10214,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="511" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="511"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>19776.46</v>
@@ -9998,6 +10350,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O24:P24"/>
@@ -10005,18 +10369,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -10057,10 +10409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10072,50 +10424,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44682</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -10137,7 +10489,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -10194,8 +10546,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -10233,8 +10585,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -10319,8 +10671,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -10400,8 +10752,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -10517,8 +10869,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -10708,8 +11060,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O18" s="515"/>
-      <c r="P18" s="515"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -10794,8 +11146,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="516"/>
-      <c r="P20" s="516"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -10829,8 +11181,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="517"/>
-      <c r="P21" s="517"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -10938,8 +11290,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="519"/>
-      <c r="P24" s="519"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -11387,10 +11739,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="511" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="511"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>33269.280000000006</v>
@@ -11429,7 +11781,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="521" t="s">
+      <c r="B40" s="523" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -11450,7 +11802,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="521"/>
+      <c r="B41" s="523"/>
       <c r="C41" s="204"/>
       <c r="D41" s="249"/>
       <c r="E41" s="250"/>
@@ -11529,6 +11881,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -11538,17 +11901,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -11589,10 +11941,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -11604,50 +11956,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44710</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -11669,7 +12021,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -11726,8 +12078,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -11765,8 +12117,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -11855,8 +12207,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -11942,8 +12294,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -12059,8 +12411,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -12258,8 +12610,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="515"/>
-      <c r="P18" s="515"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -12336,8 +12688,8 @@
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="O20" s="516"/>
-      <c r="P20" s="516"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -12371,8 +12723,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="517"/>
-      <c r="P21" s="517"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -12484,8 +12836,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="519"/>
-      <c r="P24" s="519"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -12946,10 +13298,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="511" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="511"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>41344.509999999995</v>
@@ -12988,7 +13340,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="521" t="s">
+      <c r="B40" s="523" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -13009,7 +13361,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="521"/>
+      <c r="B41" s="523"/>
       <c r="C41" s="291" t="s">
         <v>48</v>
       </c>
@@ -13028,7 +13380,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="521"/>
+      <c r="B42" s="523"/>
       <c r="C42" s="281" t="s">
         <v>48</v>
       </c>
@@ -13051,16 +13403,16 @@
       <c r="C43" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="522" t="s">
+      <c r="D43" s="524" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="523"/>
-      <c r="F43" s="523"/>
-      <c r="G43" s="523"/>
-      <c r="H43" s="523"/>
-      <c r="I43" s="523"/>
-      <c r="J43" s="523"/>
-      <c r="K43" s="524"/>
+      <c r="E43" s="525"/>
+      <c r="F43" s="525"/>
+      <c r="G43" s="525"/>
+      <c r="H43" s="525"/>
+      <c r="I43" s="525"/>
+      <c r="J43" s="525"/>
+      <c r="K43" s="526"/>
       <c r="L43" s="206"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
@@ -13068,14 +13420,14 @@
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
       <c r="C44" s="204"/>
-      <c r="D44" s="525"/>
-      <c r="E44" s="526"/>
-      <c r="F44" s="526"/>
-      <c r="G44" s="526"/>
-      <c r="H44" s="526"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="526"/>
-      <c r="K44" s="527"/>
+      <c r="D44" s="527"/>
+      <c r="E44" s="528"/>
+      <c r="F44" s="528"/>
+      <c r="G44" s="528"/>
+      <c r="H44" s="528"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="528"/>
+      <c r="K44" s="529"/>
       <c r="L44" s="206"/>
       <c r="M44" s="207"/>
       <c r="N44" s="208"/>
@@ -13115,6 +13467,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -13128,14 +13488,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -13176,10 +13528,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -13191,50 +13543,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44745</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -13256,7 +13608,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -13313,8 +13665,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -13352,8 +13704,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -13438,8 +13790,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -13525,8 +13877,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="300"/>
       <c r="R10" s="185"/>
     </row>
@@ -13650,8 +14002,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="331" t="s">
         <v>91</v>
       </c>
@@ -13859,8 +14211,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="515"/>
-      <c r="P18" s="515"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="333" t="s">
         <v>92</v>
       </c>
@@ -13947,8 +14299,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="533"/>
-      <c r="P20" s="533"/>
+      <c r="O20" s="535"/>
+      <c r="P20" s="535"/>
       <c r="Q20" s="308" t="s">
         <v>89</v>
       </c>
@@ -13984,8 +14336,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="517"/>
-      <c r="P21" s="517"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -14093,8 +14445,8 @@
         <f t="shared" si="3"/>
         <v>-81</v>
       </c>
-      <c r="O24" s="519"/>
-      <c r="P24" s="519"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="334" t="s">
         <v>90</v>
       </c>
@@ -14546,10 +14898,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="511" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="511"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>34604.840000000004</v>
@@ -14588,7 +14940,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="530" t="s">
+      <c r="B40" s="532" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="356" t="s">
@@ -14609,26 +14961,26 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="531"/>
+      <c r="B41" s="533"/>
       <c r="C41" s="357" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="528" t="s">
+      <c r="D41" s="530" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="528"/>
-      <c r="F41" s="528"/>
-      <c r="G41" s="528"/>
-      <c r="H41" s="528"/>
-      <c r="I41" s="528"/>
-      <c r="J41" s="528"/>
-      <c r="K41" s="528"/>
-      <c r="L41" s="528"/>
+      <c r="E41" s="530"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="530"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="530"/>
+      <c r="J41" s="530"/>
+      <c r="K41" s="530"/>
+      <c r="L41" s="530"/>
       <c r="M41" s="211"/>
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="531"/>
+      <c r="B42" s="533"/>
       <c r="C42" s="358" t="s">
         <v>49</v>
       </c>
@@ -14647,26 +14999,26 @@
       <c r="N42" s="212"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="531"/>
+      <c r="B43" s="533"/>
       <c r="C43" s="359" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="529" t="s">
+      <c r="D43" s="531" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="529"/>
-      <c r="F43" s="529"/>
-      <c r="G43" s="529"/>
-      <c r="H43" s="529"/>
-      <c r="I43" s="529"/>
-      <c r="J43" s="529"/>
-      <c r="K43" s="529"/>
-      <c r="L43" s="529"/>
+      <c r="E43" s="531"/>
+      <c r="F43" s="531"/>
+      <c r="G43" s="531"/>
+      <c r="H43" s="531"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="531"/>
+      <c r="K43" s="531"/>
+      <c r="L43" s="531"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="531"/>
+      <c r="B44" s="533"/>
       <c r="C44" s="360" t="s">
         <v>51</v>
       </c>
@@ -14685,7 +15037,7 @@
       <c r="N44" s="208"/>
     </row>
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="531"/>
+      <c r="B45" s="533"/>
       <c r="C45" s="361" t="s">
         <v>54</v>
       </c>
@@ -14707,7 +15059,7 @@
       <c r="Q45" s="376"/>
     </row>
     <row r="46" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="531"/>
+      <c r="B46" s="533"/>
       <c r="C46" s="362" t="s">
         <v>94</v>
       </c>
@@ -14726,7 +15078,7 @@
       <c r="N46" s="208"/>
     </row>
     <row r="47" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="532"/>
+      <c r="B47" s="534"/>
       <c r="C47" s="363" t="s">
         <v>98</v>
       </c>
@@ -14747,15 +15099,6 @@
     <sortCondition ref="B5:B33"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -14769,6 +15112,15 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -14809,10 +15161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -14824,50 +15176,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44773</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -14889,7 +15241,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -14946,8 +15298,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -14985,8 +15337,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -15071,8 +15423,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -15158,8 +15510,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -15283,8 +15635,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -15568,8 +15920,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="515"/>
-      <c r="P20" s="515"/>
+      <c r="O20" s="496"/>
+      <c r="P20" s="496"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -15654,8 +16006,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="516"/>
-      <c r="P22" s="516"/>
+      <c r="O22" s="497"/>
+      <c r="P22" s="497"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -15689,8 +16041,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="517"/>
-      <c r="P23" s="517"/>
+      <c r="O23" s="498"/>
+      <c r="P23" s="498"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -15798,8 +16150,8 @@
         <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="O26" s="519"/>
-      <c r="P26" s="519"/>
+      <c r="O26" s="500"/>
+      <c r="P26" s="500"/>
       <c r="Q26" s="381" t="s">
         <v>48</v>
       </c>
@@ -16269,10 +16621,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="511" t="s">
+      <c r="F39" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="511"/>
+      <c r="G39" s="492"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>64021.82</v>
@@ -16360,15 +16712,15 @@
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="244"/>
       <c r="C45" s="204"/>
-      <c r="D45" s="534"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="534"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="534"/>
-      <c r="I45" s="534"/>
-      <c r="J45" s="534"/>
-      <c r="K45" s="534"/>
-      <c r="L45" s="534"/>
+      <c r="D45" s="536"/>
+      <c r="E45" s="536"/>
+      <c r="F45" s="536"/>
+      <c r="G45" s="536"/>
+      <c r="H45" s="536"/>
+      <c r="I45" s="536"/>
+      <c r="J45" s="536"/>
+      <c r="K45" s="536"/>
+      <c r="L45" s="536"/>
       <c r="M45" s="211"/>
       <c r="N45" s="212"/>
     </row>
@@ -16435,13 +16787,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -16455,6 +16800,13 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -16489,32 +16841,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="544" t="s">
+      <c r="C2" s="539" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="546"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="541"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="409"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" s="409"/>
-      <c r="D4" s="535" t="s">
+      <c r="D4" s="545" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="536"/>
-      <c r="G4" s="535" t="s">
+      <c r="E4" s="546"/>
+      <c r="G4" s="545" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="536"/>
-      <c r="J4" s="535" t="s">
+      <c r="H4" s="546"/>
+      <c r="J4" s="545" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="536"/>
+      <c r="K4" s="546"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="412"/>
@@ -16540,7 +16892,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="537" t="s">
+      <c r="B6" s="547" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="421" t="s">
@@ -16566,25 +16918,25 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="537"/>
+      <c r="B7" s="547"/>
       <c r="C7" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="549" t="s">
+      <c r="D7" s="544" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="548"/>
-      <c r="G7" s="547" t="s">
+      <c r="E7" s="543"/>
+      <c r="G7" s="542" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="548"/>
+      <c r="H7" s="543"/>
       <c r="J7" s="438" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="140"/>
     </row>
     <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="538" t="s">
+      <c r="B8" s="548" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="423" t="s">
@@ -16602,7 +16954,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="539"/>
+      <c r="B9" s="549"/>
       <c r="C9" s="424" t="s">
         <v>121</v>
       </c>
@@ -16614,7 +16966,7 @@
       <c r="K9" s="378"/>
     </row>
     <row r="10" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="540" t="s">
+      <c r="B10" s="550" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="430" t="s">
@@ -16636,7 +16988,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="541"/>
+      <c r="B11" s="551"/>
       <c r="C11" s="429" t="s">
         <v>123</v>
       </c>
@@ -16648,7 +17000,7 @@
       <c r="K11" s="378"/>
     </row>
     <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="542" t="s">
+      <c r="B12" s="537" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="433" t="s">
@@ -16666,7 +17018,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="543"/>
+      <c r="B13" s="538"/>
       <c r="C13" s="434" t="s">
         <v>125</v>
       </c>
@@ -16727,16 +17079,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16750,8 +17102,8 @@
   </sheetPr>
   <dimension ref="B1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16776,10 +17128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="491"/>
+      <c r="B1" s="503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="503"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -16791,50 +17143,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="492">
+      <c r="B2" s="504">
         <v>44801</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="F2" s="494" t="s">
+      <c r="C2" s="505"/>
+      <c r="F2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="494"/>
-      <c r="H2" s="494"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="509" t="s">
+      <c r="K2" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="521"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="495" t="s">
+      <c r="C3" s="507" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="496"/>
+      <c r="D3" s="508"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="497" t="s">
+      <c r="F3" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="498"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="499" t="s">
+      <c r="I3" s="511" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="501" t="s">
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
+      <c r="M3" s="513" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="502"/>
-      <c r="O3" s="503" t="s">
+      <c r="N3" s="514"/>
+      <c r="O3" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="516"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -16856,7 +17208,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="500"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -16877,7 +17229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
@@ -16890,11 +17242,11 @@
       <c r="E5" s="255"/>
       <c r="F5" s="441"/>
       <c r="G5" s="443"/>
-      <c r="H5" s="29">
+      <c r="H5" s="557">
         <f t="shared" ref="H5:I36" si="0">F5+C5</f>
         <v>563.71</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="558">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -16913,10 +17265,10 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="505"/>
-      <c r="P5" s="506"/>
-    </row>
-    <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="517"/>
+      <c r="P5" s="518"/>
+    </row>
+    <row r="6" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
@@ -16929,11 +17281,11 @@
       <c r="E6" s="255"/>
       <c r="F6" s="441"/>
       <c r="G6" s="443"/>
-      <c r="H6" s="29">
+      <c r="H6" s="557">
         <f t="shared" si="0"/>
         <v>541.28</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="558">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -16952,8 +17304,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="507"/>
-      <c r="P6" s="508"/>
+      <c r="O6" s="519"/>
+      <c r="P6" s="520"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -16961,7 +17313,7 @@
       <c r="W6" s="41"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="2:24" ht="18.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="264" t="s">
         <v>14</v>
       </c>
@@ -16970,11 +17322,11 @@
       <c r="E7" s="441"/>
       <c r="F7" s="441"/>
       <c r="G7" s="443"/>
-      <c r="H7" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
+      <c r="H7" s="557">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="558">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16994,7 +17346,7 @@
       <c r="Q7" s="330"/>
       <c r="R7" s="185"/>
     </row>
-    <row r="8" spans="2:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="264" t="s">
         <v>15</v>
       </c>
@@ -17007,11 +17359,11 @@
       <c r="E8" s="255"/>
       <c r="F8" s="441"/>
       <c r="G8" s="443"/>
-      <c r="H8" s="34">
+      <c r="H8" s="559">
         <f t="shared" si="0"/>
         <v>167.96</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="558">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -17030,12 +17382,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="489"/>
-      <c r="P8" s="489"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="501"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
-    <row r="9" spans="2:24" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="264" t="s">
         <v>16</v>
       </c>
@@ -17044,11 +17396,11 @@
       <c r="E9" s="445"/>
       <c r="F9" s="441"/>
       <c r="G9" s="443"/>
-      <c r="H9" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="47">
+      <c r="H9" s="559">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17068,7 +17420,7 @@
       <c r="Q9" s="190"/>
       <c r="R9" s="185"/>
     </row>
-    <row r="10" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="264" t="s">
         <v>17</v>
       </c>
@@ -17081,11 +17433,11 @@
       <c r="E10" s="255"/>
       <c r="F10" s="441"/>
       <c r="G10" s="443"/>
-      <c r="H10" s="34">
+      <c r="H10" s="559">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="560">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -17104,12 +17456,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="512"/>
-      <c r="P10" s="512"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
-    <row r="11" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="264" t="s">
         <v>18</v>
       </c>
@@ -17122,11 +17474,11 @@
       <c r="G11" s="443">
         <v>12</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="559">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="560">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -17150,7 +17502,7 @@
       <c r="Q11" s="379"/>
       <c r="R11" s="185"/>
     </row>
-    <row r="12" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="364" t="s">
         <v>81</v>
       </c>
@@ -17163,11 +17515,11 @@
       <c r="G12" s="443">
         <v>24</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="561">
         <f t="shared" si="0"/>
         <v>756.97</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="560">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -17193,7 +17545,7 @@
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
     </row>
-    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="264" t="s">
         <v>21</v>
       </c>
@@ -17206,11 +17558,11 @@
       <c r="E13" s="255"/>
       <c r="F13" s="441"/>
       <c r="G13" s="443"/>
-      <c r="H13" s="63">
+      <c r="H13" s="562">
         <f t="shared" si="0"/>
         <v>3881.73</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="560">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
@@ -17229,14 +17581,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="514"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
       <c r="T13" s="53"/>
     </row>
-    <row r="14" spans="2:24" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="264" t="s">
         <v>23</v>
       </c>
@@ -17245,11 +17597,11 @@
       <c r="E14" s="255"/>
       <c r="F14" s="441"/>
       <c r="G14" s="443"/>
-      <c r="H14" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="47">
+      <c r="H14" s="562">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17271,7 +17623,7 @@
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="264" t="s">
         <v>46</v>
       </c>
@@ -17284,11 +17636,11 @@
       <c r="E15" s="255"/>
       <c r="F15" s="441"/>
       <c r="G15" s="443"/>
-      <c r="H15" s="63">
+      <c r="H15" s="562">
         <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="560">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -17314,7 +17666,7 @@
       <c r="S15" s="53"/>
       <c r="T15" s="53"/>
     </row>
-    <row r="16" spans="2:24" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="264" t="s">
         <v>22</v>
       </c>
@@ -17323,11 +17675,11 @@
       <c r="E16" s="255"/>
       <c r="F16" s="441"/>
       <c r="G16" s="443"/>
-      <c r="H16" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="47">
+      <c r="H16" s="562">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17349,7 +17701,7 @@
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
     </row>
-    <row r="17" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="264" t="s">
         <v>109</v>
       </c>
@@ -17362,11 +17714,11 @@
       <c r="E17" s="255"/>
       <c r="F17" s="441"/>
       <c r="G17" s="443"/>
-      <c r="H17" s="63">
+      <c r="H17" s="562">
         <f t="shared" si="0"/>
         <v>3364.18</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="560">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
@@ -17392,7 +17744,7 @@
       <c r="S17" s="53"/>
       <c r="T17" s="53"/>
     </row>
-    <row r="18" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="264" t="s">
         <v>24</v>
       </c>
@@ -17405,11 +17757,11 @@
       <c r="E18" s="255"/>
       <c r="F18" s="441"/>
       <c r="G18" s="443"/>
-      <c r="H18" s="63">
+      <c r="H18" s="562">
         <f t="shared" si="0"/>
         <v>626.66</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="560">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -17437,7 +17789,7 @@
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="264" t="s">
         <v>82</v>
       </c>
@@ -17450,11 +17802,11 @@
       <c r="E19" s="255"/>
       <c r="F19" s="441"/>
       <c r="G19" s="443"/>
-      <c r="H19" s="63">
+      <c r="H19" s="562">
         <f t="shared" si="0"/>
         <v>415.93</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="560">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -17480,7 +17832,7 @@
       <c r="S19" s="53"/>
       <c r="T19" s="53"/>
     </row>
-    <row r="20" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="264" t="s">
         <v>25</v>
       </c>
@@ -17493,11 +17845,11 @@
       <c r="G20" s="449">
         <v>131</v>
       </c>
-      <c r="H20" s="268">
+      <c r="H20" s="563">
         <f t="shared" si="0"/>
         <v>594.74</v>
       </c>
-      <c r="I20" s="269">
+      <c r="I20" s="564">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -17516,14 +17868,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="515"/>
-      <c r="P20" s="515"/>
+      <c r="O20" s="496"/>
+      <c r="P20" s="496"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="264" t="s">
         <v>83</v>
       </c>
@@ -17532,11 +17884,11 @@
       <c r="E21" s="255"/>
       <c r="F21" s="441"/>
       <c r="G21" s="443"/>
-      <c r="H21" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="47">
+      <c r="H21" s="562">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17558,7 +17910,7 @@
       <c r="S21" s="75"/>
       <c r="T21" s="53"/>
     </row>
-    <row r="22" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="364" t="s">
         <v>26</v>
       </c>
@@ -17571,11 +17923,11 @@
       <c r="E22" s="255"/>
       <c r="F22" s="441"/>
       <c r="G22" s="443"/>
-      <c r="H22" s="63">
+      <c r="H22" s="562">
         <f t="shared" si="0"/>
         <v>4649.1099999999997</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="560">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
@@ -17594,14 +17946,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="516"/>
-      <c r="P22" s="516"/>
+      <c r="O22" s="497"/>
+      <c r="P22" s="497"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="264" t="s">
         <v>28</v>
       </c>
@@ -17610,11 +17962,11 @@
       <c r="E23" s="255"/>
       <c r="F23" s="441"/>
       <c r="G23" s="443"/>
-      <c r="H23" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="47">
+      <c r="H23" s="562">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17629,14 +17981,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="517"/>
-      <c r="P23" s="517"/>
+      <c r="O23" s="498"/>
+      <c r="P23" s="498"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
       <c r="T23" s="53"/>
     </row>
-    <row r="24" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="264" t="s">
         <v>30</v>
       </c>
@@ -17645,11 +17997,11 @@
       <c r="E24" s="255"/>
       <c r="F24" s="441"/>
       <c r="G24" s="443"/>
-      <c r="H24" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="47">
+      <c r="H24" s="562">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17669,7 +18021,7 @@
       <c r="Q24" s="190"/>
       <c r="R24" s="185"/>
     </row>
-    <row r="25" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="264" t="s">
         <v>31</v>
       </c>
@@ -17678,11 +18030,11 @@
       <c r="E25" s="255"/>
       <c r="F25" s="441"/>
       <c r="G25" s="443"/>
-      <c r="H25" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="47">
+      <c r="H25" s="562">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="560">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17702,7 +18054,7 @@
       <c r="Q25" s="190"/>
       <c r="R25" s="185"/>
     </row>
-    <row r="26" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="322" t="s">
         <v>27</v>
       </c>
@@ -17715,11 +18067,11 @@
       <c r="E26" s="255"/>
       <c r="F26" s="441"/>
       <c r="G26" s="443"/>
-      <c r="H26" s="63">
+      <c r="H26" s="562">
         <f t="shared" si="0"/>
         <v>694.22</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="560">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -17738,14 +18090,14 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="O26" s="550"/>
-      <c r="P26" s="550"/>
+      <c r="O26" s="552"/>
+      <c r="P26" s="552"/>
       <c r="Q26" s="474" t="s">
         <v>48</v>
       </c>
       <c r="R26" s="185"/>
     </row>
-    <row r="27" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="321" t="s">
         <v>29</v>
       </c>
@@ -17758,11 +18110,11 @@
       <c r="G27" s="451">
         <v>0</v>
       </c>
-      <c r="H27" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="88">
+      <c r="H27" s="561">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17782,7 +18134,7 @@
       <c r="Q27" s="190"/>
       <c r="R27" s="185"/>
     </row>
-    <row r="28" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="364" t="s">
         <v>34</v>
       </c>
@@ -17791,11 +18143,11 @@
       <c r="E28" s="255"/>
       <c r="F28" s="450"/>
       <c r="G28" s="451"/>
-      <c r="H28" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="88">
+      <c r="H28" s="561">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17815,7 +18167,7 @@
       <c r="Q28" s="190"/>
       <c r="R28" s="185"/>
     </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="435" t="s">
         <v>37</v>
       </c>
@@ -17828,11 +18180,11 @@
       <c r="G29" s="451">
         <v>21</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="561">
         <f t="shared" si="0"/>
         <v>18968.2</v>
       </c>
-      <c r="I29" s="88">
+      <c r="I29" s="565">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -17855,7 +18207,7 @@
       <c r="R29" s="185"/>
       <c r="S29" s="53"/>
     </row>
-    <row r="30" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="264" t="s">
         <v>72</v>
       </c>
@@ -17864,11 +18216,11 @@
       <c r="E30" s="255"/>
       <c r="F30" s="450"/>
       <c r="G30" s="451"/>
-      <c r="H30" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="88">
+      <c r="H30" s="561">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17888,7 +18240,7 @@
       <c r="Q30" s="194"/>
       <c r="R30" s="185"/>
     </row>
-    <row r="31" spans="2:20" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="365" t="s">
         <v>73</v>
       </c>
@@ -17901,11 +18253,11 @@
       <c r="E31" s="454"/>
       <c r="F31" s="452"/>
       <c r="G31" s="455"/>
-      <c r="H31" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="88">
+      <c r="H31" s="561">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17925,7 +18277,7 @@
       <c r="Q31" s="190"/>
       <c r="R31" s="185"/>
     </row>
-    <row r="32" spans="2:20" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="366" t="s">
         <v>96</v>
       </c>
@@ -17934,11 +18286,11 @@
       <c r="E32" s="457"/>
       <c r="F32" s="452"/>
       <c r="G32" s="458"/>
-      <c r="H32" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="88">
+      <c r="H32" s="561">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17958,7 +18310,7 @@
       <c r="Q32" s="190"/>
       <c r="R32" s="185"/>
     </row>
-    <row r="33" spans="2:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="112" t="s">
         <v>70</v>
       </c>
@@ -17967,11 +18319,11 @@
       <c r="E33" s="457"/>
       <c r="F33" s="452"/>
       <c r="G33" s="458"/>
-      <c r="H33" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="88">
+      <c r="H33" s="561">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="565">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17991,7 +18343,7 @@
       <c r="Q33" s="194"/>
       <c r="R33" s="185"/>
     </row>
-    <row r="34" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="465" t="s">
         <v>130</v>
       </c>
@@ -18008,11 +18360,11 @@
       <c r="G34" s="458">
         <v>50</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="561">
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
-      <c r="I34" s="88">
+      <c r="I34" s="565">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -18036,7 +18388,7 @@
       <c r="Q34" s="190"/>
       <c r="R34" s="185"/>
     </row>
-    <row r="35" spans="2:18" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="109" t="s">
         <v>78</v>
       </c>
@@ -18045,11 +18397,11 @@
       <c r="E35" s="459"/>
       <c r="F35" s="452"/>
       <c r="G35" s="458"/>
-      <c r="H35" s="100">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="101">
+      <c r="H35" s="566">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="567">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18069,7 +18421,7 @@
       <c r="Q35" s="300"/>
       <c r="R35" s="185"/>
     </row>
-    <row r="36" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
         <v>40</v>
       </c>
@@ -18086,11 +18438,11 @@
       <c r="G36" s="458">
         <v>7</v>
       </c>
-      <c r="H36" s="100">
+      <c r="H36" s="566">
         <f t="shared" si="0"/>
         <v>134.88999999999999</v>
       </c>
-      <c r="I36" s="101">
+      <c r="I36" s="567">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -18114,7 +18466,7 @@
       <c r="Q36" s="187"/>
       <c r="R36" s="185"/>
     </row>
-    <row r="37" spans="2:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="24" t="s">
         <v>41</v>
       </c>
@@ -18127,11 +18479,11 @@
       <c r="E37" s="463"/>
       <c r="F37" s="461"/>
       <c r="G37" s="464"/>
-      <c r="H37" s="401">
+      <c r="H37" s="568">
         <f t="shared" ref="H37:I38" si="3">F37+C37</f>
         <v>793.09</v>
       </c>
-      <c r="I37" s="402">
+      <c r="I37" s="569">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -18191,10 +18543,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="511" t="s">
+      <c r="F39" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="511"/>
+      <c r="G39" s="492"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>35872.69</v>
@@ -18368,6 +18720,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -18381,12 +18739,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
